--- a/co_occurrence_health_safety.xlsx
+++ b/co_occurrence_health_safety.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,156 @@
       </c>
       <c r="B11" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>please</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>oily</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>spf</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>suitable</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>prone</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>balm</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>serum</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>light</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>cream</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>oil</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -567,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -684,6 +834,156 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>never</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>reply</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ever</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>copy</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ordinary</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>mynykaa</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>toner</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>acid</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>minimalist</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>plus</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>live</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>hope</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
         <v>2</v>
       </c>
     </row>
@@ -698,7 +998,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -816,6 +1116,156 @@
       </c>
       <c r="B11" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>dr</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>really</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>halal</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>beminimalist</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>consult</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>watery</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>visit</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>animal</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -829,7 +1279,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -947,6 +1397,156 @@
       </c>
       <c r="B11" t="n">
         <v>44</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>melanin</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>generation</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>molecule</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>inhibit</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>fix</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>exfoliator</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>hair</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>potent</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>vitamin</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>antioxidant</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>skinbrightener</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>boost</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>natural</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>glow</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -960,7 +1560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1078,6 +1678,156 @@
       </c>
       <c r="B11" t="n">
         <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>serum</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>dry</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>niacinamide</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>beminimalist</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>do</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>please</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sensitive</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>moisturizer</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>without</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>retinol</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>face</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1091,7 +1841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,6 +1958,156 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>cancercause</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>much</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>safe</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>benzoyl</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>peroxide</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>unless</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>improve</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>without</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>tea</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>brand</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>wrong</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>hide</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>guilty</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>please</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1222,7 +2122,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1340,6 +2240,156 @@
       </c>
       <c r="B11" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>serum</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>reaction</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>beminimalist</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>vera</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>do</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>want</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>acne</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>make</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>hey</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1353,7 +2403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1471,6 +2521,156 @@
       </c>
       <c r="B11" t="n">
         <v>229</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>let</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>beminimalist</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>prone</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>dry</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>suggest</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>oily</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>serum</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>love</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>retinol</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>niacinamide</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>well</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>salicylic</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1484,7 +2684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1602,6 +2802,156 @@
       </c>
       <c r="B11" t="n">
         <v>31</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>animal</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>final</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>consumer</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>recommend</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>run</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>stay</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>make</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>tune</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>cleanser</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sure</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1615,7 +2965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1733,6 +3083,156 @@
       </c>
       <c r="B11" t="n">
         <v>110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>beminimalist</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sunscreen</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>please</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>niacinamide</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>however</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>spf</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>vitamin</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>retinol</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>period</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>hair</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>fungal</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>salicylic</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>recommend</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1746,7 +3246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1864,6 +3364,156 @@
       </c>
       <c r="B11" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sunscreen</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>follow</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>routine</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>go</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>acne</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>oil</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>shampoo</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>beminimalist</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>industry</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>reduce</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>extract</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1877,7 +3527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1997,6 +3647,156 @@
         <v>28</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>optimally</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>hey</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>thank</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>skin</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>depend</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>various</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>etc</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>brand</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>skincare</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>love</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>please</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
